--- a/Exercicio Teorico/exercicio1_apriori.xlsx
+++ b/Exercicio Teorico/exercicio1_apriori.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ghost\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ghost\Desktop\Exercicio Teorico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CABF07-A00B-43BA-9FE1-DC3863B7CBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4384C19-8F58-425B-A61D-BB6EE456FDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="630" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>Trans</t>
   </si>
@@ -151,13 +151,49 @@
   </si>
   <si>
     <t>Produtos "Confiáveis"</t>
+  </si>
+  <si>
+    <t>Combinação 3 produtos</t>
+  </si>
+  <si>
+    <t>(1, 2, 4)</t>
+  </si>
+  <si>
+    <t>(1, 2, 5)</t>
+  </si>
+  <si>
+    <t>(1, 3, 4)</t>
+  </si>
+  <si>
+    <t>(1, 3, 5)</t>
+  </si>
+  <si>
+    <t>(1, 4, 5)</t>
+  </si>
+  <si>
+    <t>(2, 4, 5)</t>
+  </si>
+  <si>
+    <t>(3, 4, 5)</t>
+  </si>
+  <si>
+    <t>Confiança 1</t>
+  </si>
+  <si>
+    <t>Confiança 2</t>
+  </si>
+  <si>
+    <t>Confiança 3</t>
+  </si>
+  <si>
+    <t>Média da Confiança (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,15 +248,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +275,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,13 +494,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -509,29 +545,42 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20% - Ênfase1" xfId="3" builtinId="30"/>
     <cellStyle name="Célula de Verificação" xfId="1" builtinId="23"/>
     <cellStyle name="Ênfase1" xfId="2" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -843,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,41 +905,43 @@
     <col min="6" max="7" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-    </row>
-    <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="14" t="s">
         <v>28</v>
       </c>
@@ -903,8 +954,11 @@
       <c r="K2" s="14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -922,24 +976,27 @@
         <f>COUNT(B5,B12)/10</f>
         <v>0.2</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="17">
         <f>COUNT(A3,A7,A10,A14)</f>
         <v>4</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="18">
         <f>$I3/E6</f>
         <v>0.8</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="18">
         <f>$I3/E7</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -957,24 +1014,27 @@
         <f>COUNT(B2,B9,B13)/10</f>
         <v>0.3</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="17">
         <f>COUNT(A2,A9,A13)</f>
         <v>3</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="18">
         <f>I4/E4</f>
         <v>1</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="18">
         <f>$I4/E6</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L4" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -992,24 +1052,27 @@
         <f>COUNT(B6,B16)/10</f>
         <v>0.2</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="17">
         <f>COUNT(A2,A9,A13)</f>
         <v>3</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="18">
         <f>I5/E4</f>
         <v>1</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="18">
         <f>$I5/E7</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1027,24 +1090,27 @@
         <f>COUNT(B3,B7,B10,B14,B18)/10</f>
         <v>0.5</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="17">
         <f>COUNT(A5,A12)</f>
         <v>2</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="18">
         <f>I6/E3</f>
         <v>1</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="18">
         <f>$I6/E6</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L6" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1062,24 +1128,27 @@
         <f>COUNT(B17,B15,B11,B8,B4)/10</f>
         <v>0.5</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="17">
         <f>COUNT(A5,A12)</f>
         <v>2</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="18">
         <f>I7/E3</f>
         <v>1</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="18">
         <f>$I7/E7</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L7" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1097,24 +1166,24 @@
         <f>COUNT(B20,B22)/10</f>
         <v>0.2</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="17">
         <f>COUNT(A5)</f>
         <v>1</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="18">
         <f>(I8/E3)</f>
         <v>0.5</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="18">
         <f>$I8/E5</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1132,24 +1201,24 @@
         <f>COUNT(B19,B21)/10</f>
         <v>0.2</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19" t="s">
+      <c r="G9" s="16"/>
+      <c r="H9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <f>COUNT(A6)</f>
         <v>1</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="18">
         <f>I9/E5</f>
         <v>0.5</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="18">
         <f>$I9/E6</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1167,80 +1236,80 @@
         <f>SUM(F3:F9)/E10*10</f>
         <v>1</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19" t="s">
+      <c r="G10" s="16"/>
+      <c r="H10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="17">
         <f>COUNT(A6)</f>
         <v>1</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="18">
         <f>I10/E5</f>
         <v>0.5</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="18">
         <f>$I10/E7</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>3</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="17">
         <f>COUNT(A12)</f>
         <v>1</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="18">
         <f>I11/E3</f>
         <v>0.5</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="18">
         <f>$I11/E4</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>4</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="17">
         <f>COUNT(A20)</f>
         <v>1</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="18">
         <f>I12/E8</f>
         <v>0.5</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="18">
         <f>$I12/E9</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -1253,14 +1322,14 @@
       <c r="E13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -1273,14 +1342,28 @@
       <c r="E14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -1293,14 +1376,33 @@
       <c r="E15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="17">
+        <f>COUNT(A3)</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="17">
+        <f>I15/I11</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="23">
+        <f>I15/I4</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L15" s="23">
+        <f>I15/I6</f>
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="23">
+        <f>AVERAGE(J15:L15)</f>
+        <v>0.61111111111111105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -1313,16 +1415,33 @@
       <c r="E16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-    </row>
-    <row r="17" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="17">
+        <f>COUNT(A14)</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="17">
+        <f>I16/I11</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="23">
+        <f>I16/I5</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L16" s="23">
+        <f>I16/I7</f>
+        <v>0.5</v>
+      </c>
+      <c r="M16" s="23">
+        <f>AVERAGE(J16:L16)</f>
+        <v>0.61111111111111105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -1335,16 +1454,33 @@
       <c r="E17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-    </row>
-    <row r="18" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="17">
+        <f>COUNT(A5)</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="17">
+        <f>I17/I8</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="23">
+        <f>I17/I9</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="23">
+        <f>I17/I6</f>
+        <v>0.5</v>
+      </c>
+      <c r="M17" s="23">
+        <f t="shared" ref="M16:M21" si="0">AVERAGE(J17:L17)</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>7</v>
       </c>
@@ -1357,16 +1493,33 @@
       <c r="E18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="17">
+        <f>COUNT(A6)</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="17">
+        <f>I18/I8</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="23">
+        <f>I18/I10</f>
+        <v>1</v>
+      </c>
+      <c r="L18" s="23">
+        <f>I18/I7</f>
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>8</v>
       </c>
@@ -1379,16 +1532,33 @@
       <c r="E19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-    </row>
-    <row r="20" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="17">
+        <f>COUNT(A7,A14)</f>
+        <v>2</v>
+      </c>
+      <c r="J19" s="17">
+        <f>I19/I6</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="23">
+        <f>I19/I3</f>
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="23">
+        <f>I19/I7</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>9</v>
       </c>
@@ -1401,16 +1571,33 @@
       <c r="E20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="17">
+        <f>COUNT(A3,A10,A14)</f>
+        <v>3</v>
+      </c>
+      <c r="J20" s="17">
+        <f>I20/I4</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="23">
+        <f>I20/I3</f>
+        <v>0.75</v>
+      </c>
+      <c r="L20" s="23">
+        <f>I20/I5</f>
+        <v>1</v>
+      </c>
+      <c r="M20" s="23">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>9</v>
       </c>
@@ -1423,16 +1610,33 @@
       <c r="E21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="17">
+        <f>COUNT(A7)</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="17">
+        <f>I21/I9</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="23">
+        <f>I21/I3</f>
+        <v>0.25</v>
+      </c>
+      <c r="L21" s="23">
+        <f>I21/I10</f>
+        <v>1</v>
+      </c>
+      <c r="M21" s="23">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -1445,17 +1649,54 @@
       <c r="E22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="23" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23">
         <f>COUNT(B2:B22)</f>
         <v>21</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="25"/>
+    </row>
+    <row r="29" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="24" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
